--- a/Prototypes/Mungbean/DAFobserved.xlsx
+++ b/Prototypes/Mungbean/DAFobserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297FF38-AC3C-4B08-A0CE-D5544B57ADF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AA2D0-0347-4CF2-89C2-B3288C1F75D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D9F11C1-C0FE-4D4A-A275-66D5D8F65F9A}"/>
+    <workbookView xWindow="32295" yWindow="5970" windowWidth="20775" windowHeight="11835" xr2:uid="{9D9F11C1-C0FE-4D4A-A275-66D5D8F65F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,70 +44,10 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.Phenology.DaysAfterSowing</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Veg</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Pod.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.HarvestIndex</t>
-  </si>
-  <si>
     <t>SLA_apsim_total</t>
   </si>
   <si>
-    <t>Soybean.Leaf.Live.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Shell.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.N</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.N</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.N</t>
-  </si>
-  <si>
-    <t>Soybean.Shell.N</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.N</t>
-  </si>
-  <si>
     <t>SLN_apsim</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
     <t>SW120cm</t>
@@ -144,15 +84,6 @@
   </si>
   <si>
     <t>Soil.PAW_90_120cm</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Size</t>
-  </si>
-  <si>
-    <t>Soybean.Nodule.Nfixed</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Height</t>
   </si>
   <si>
     <t>ACRI</t>
@@ -461,9 +392,6 @@
     <t>Emerald2019NPlantSideSEmerald2019NPlitN_inoc</t>
   </si>
   <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
   </si>
   <si>
@@ -543,6 +471,78 @@
   </si>
   <si>
     <t>BreezaFallow</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.CurrentStageName</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Veg</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Shell.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Shell.N</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Size</t>
+  </si>
+  <si>
+    <t>Mungbean.Nodule.Nfixed</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Height</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
   <dimension ref="A1:BN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,201 +970,201 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="BM1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN1" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>43949</v>
@@ -1173,7 +1173,7 @@
         <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>179</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="3" spans="1:66">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>43949</v>
@@ -1212,7 +1212,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F3">
         <v>182</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="4" spans="1:66">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>43949</v>
@@ -1251,7 +1251,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>182</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="5" spans="1:66">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>43949</v>
@@ -1290,7 +1290,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>188</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="6" spans="1:66">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>43949</v>
@@ -1329,7 +1329,7 @@
         <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>191</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="7" spans="1:66">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>43949</v>
@@ -1368,7 +1368,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <v>193</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="8" spans="1:66">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>43949</v>
@@ -1407,7 +1407,7 @@
         <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F8">
         <v>195</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9" spans="1:66">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>43949</v>
@@ -1446,7 +1446,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>197</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="10" spans="1:66">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>43949</v>
@@ -1485,7 +1485,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>222</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="11" spans="1:66">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>43949</v>
@@ -1525,7 +1525,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>223</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="12" spans="1:66">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5">
         <v>43949</v>
@@ -1565,7 +1565,7 @@
         <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>227</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="13" spans="1:66">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <v>43949</v>
@@ -1605,7 +1605,7 @@
         <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F13">
         <v>232</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="14" spans="1:66">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5">
         <v>43949</v>
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <v>239</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="15" spans="1:66">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5">
         <v>43949</v>
@@ -1685,7 +1685,7 @@
         <v>96</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F15">
         <v>243</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="16" spans="1:66">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>43949</v>
@@ -1725,7 +1725,7 @@
         <v>96</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F16">
         <v>243</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <v>43949</v>
@@ -1765,7 +1765,7 @@
         <v>96</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>254</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
         <v>43959</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5">
         <v>43959</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5">
         <v>43959</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <v>43959</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
         <v>43959</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5">
         <v>43727</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5">
         <v>43860</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5">
         <v>43959</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <v>43959</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5">
         <v>43959</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5">
         <v>43959</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>43959</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C30" s="5">
         <v>43959</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C31" s="5">
         <v>43959</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5">
         <v>43959</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="33" spans="1:47">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5">
         <v>43959</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="34" spans="1:47">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5">
         <v>43959</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="35" spans="1:47">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C35" s="5">
         <v>43959</v>
@@ -2117,19 +2117,17 @@
     </row>
     <row r="36" spans="1:47">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D36" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <v>153</v>
@@ -2154,19 +2152,17 @@
     </row>
     <row r="37" spans="1:47">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C37" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D37" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>154</v>
@@ -2191,19 +2187,17 @@
     </row>
     <row r="38" spans="1:47">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D38" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>155</v>
@@ -2228,19 +2222,17 @@
     </row>
     <row r="39" spans="1:47">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D39" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>157</v>
@@ -2267,19 +2259,17 @@
     </row>
     <row r="40" spans="1:47">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D40" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F40">
         <v>157</v>
@@ -2308,19 +2298,17 @@
     </row>
     <row r="41" spans="1:47">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D41" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>160</v>
@@ -2349,19 +2337,17 @@
     </row>
     <row r="42" spans="1:47">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D42" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>164</v>
@@ -2388,19 +2374,17 @@
     </row>
     <row r="43" spans="1:47">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D43" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>166</v>
@@ -2426,19 +2410,17 @@
     </row>
     <row r="44" spans="1:47">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C44" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D44" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F44">
         <v>170</v>
@@ -2465,19 +2447,17 @@
     </row>
     <row r="45" spans="1:47">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C45" s="5">
-        <v>43571</v>
-      </c>
-      <c r="D45" s="7">
-        <v>97</v>
-      </c>
+        <v>43546</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>172</v>
@@ -2503,10 +2483,10 @@
     </row>
     <row r="46" spans="1:47">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5">
         <v>43363</v>
@@ -2532,10 +2512,10 @@
     </row>
     <row r="47" spans="1:47">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5">
         <v>43475</v>
@@ -2553,10 +2533,10 @@
     </row>
     <row r="48" spans="1:47">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C48" s="5">
         <v>43480</v>
@@ -2576,10 +2556,10 @@
     </row>
     <row r="49" spans="1:47">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C49" s="5">
         <v>43516</v>
@@ -2598,10 +2578,10 @@
     </row>
     <row r="50" spans="1:47">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C50" s="5">
         <v>43475</v>
@@ -2618,10 +2598,10 @@
     </row>
     <row r="51" spans="1:47">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C51" s="5">
         <v>43516</v>
@@ -2640,10 +2620,10 @@
     </row>
     <row r="52" spans="1:47">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C52" s="5">
         <v>43475</v>
@@ -2667,10 +2647,10 @@
     </row>
     <row r="53" spans="1:47">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C53" s="5">
         <v>43517</v>
@@ -2690,10 +2670,10 @@
     </row>
     <row r="54" spans="1:47">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C54" s="5">
         <v>43475</v>
@@ -2717,10 +2697,10 @@
     </row>
     <row r="55" spans="1:47">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C55" s="5">
         <v>43517</v>
@@ -2740,10 +2720,10 @@
     </row>
     <row r="56" spans="1:47">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C56" s="5">
         <v>43475</v>
@@ -2765,10 +2745,10 @@
     </row>
     <row r="57" spans="1:47">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C57" s="5">
         <v>43516</v>
@@ -2786,10 +2766,10 @@
     </row>
     <row r="58" spans="1:47">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C58" s="5">
         <v>43475</v>
@@ -2811,10 +2791,10 @@
     </row>
     <row r="59" spans="1:47">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C59" s="5">
         <v>43517</v>
@@ -2832,10 +2812,10 @@
     </row>
     <row r="60" spans="1:47">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C60" s="5">
         <v>43475</v>
@@ -2858,10 +2838,10 @@
     </row>
     <row r="61" spans="1:47">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C61" s="5">
         <v>43517</v>
@@ -2881,10 +2861,10 @@
     </row>
     <row r="62" spans="1:47">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C62" s="5">
         <v>43475</v>
@@ -2907,10 +2887,10 @@
     </row>
     <row r="63" spans="1:47">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C63" s="5">
         <v>43516</v>
@@ -2930,10 +2910,10 @@
     </row>
     <row r="64" spans="1:47">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C64" s="5">
         <v>43475</v>
@@ -2955,10 +2935,10 @@
     </row>
     <row r="65" spans="1:42">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C65" s="5">
         <v>43516</v>
@@ -2976,10 +2956,10 @@
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C66" s="5">
         <v>43475</v>
@@ -3001,10 +2981,10 @@
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C67" s="5">
         <v>43518</v>
@@ -3022,10 +3002,10 @@
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C68" s="5"/>
       <c r="M68" s="5"/>
@@ -3035,10 +3015,10 @@
     </row>
     <row r="69" spans="1:42">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C69" s="5">
         <v>43938</v>
@@ -3047,7 +3027,7 @@
         <v>59</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F69">
         <v>89.5</v>
@@ -3084,10 +3064,10 @@
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C70" s="5">
         <v>43938</v>
@@ -3096,7 +3076,7 @@
         <v>60</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F70">
         <v>92.2</v>
@@ -3133,10 +3113,10 @@
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C71" s="5">
         <v>43938</v>
@@ -3145,7 +3125,7 @@
         <v>60</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F71">
         <v>93.6</v>
@@ -3182,10 +3162,10 @@
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C72" s="5">
         <v>43938</v>
@@ -3194,7 +3174,7 @@
         <v>60</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F72">
         <v>98.3</v>
@@ -3231,10 +3211,10 @@
     </row>
     <row r="73" spans="1:42">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C73" s="5">
         <v>43938</v>
@@ -3243,7 +3223,7 @@
         <v>60</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F73">
         <v>103.4</v>
@@ -3280,10 +3260,10 @@
     </row>
     <row r="74" spans="1:42">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C74" s="5">
         <v>43937</v>
@@ -3292,7 +3272,7 @@
         <v>59</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F74">
         <v>104.1</v>
@@ -3329,10 +3309,10 @@
     </row>
     <row r="75" spans="1:42">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C75" s="5">
         <v>43938</v>
@@ -3341,7 +3321,7 @@
         <v>60</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F75">
         <v>104.6</v>
@@ -3378,10 +3358,10 @@
     </row>
     <row r="76" spans="1:42">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C76" s="5">
         <v>43610</v>
@@ -3390,7 +3370,7 @@
         <v>89</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F76">
         <v>109.4</v>
@@ -3415,10 +3395,10 @@
     </row>
     <row r="77" spans="1:42">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C77" s="5">
         <v>43610</v>
@@ -3427,7 +3407,7 @@
         <v>89</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F77">
         <v>109.4</v>
@@ -3443,10 +3423,10 @@
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C78" s="5">
         <v>43613</v>
@@ -3455,7 +3435,7 @@
         <v>91.5</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F78">
         <v>112.7</v>
@@ -3480,10 +3460,10 @@
     </row>
     <row r="79" spans="1:42">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C79" s="5">
         <v>43613</v>
@@ -3492,7 +3472,7 @@
         <v>91.5</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F79">
         <v>112.7</v>
@@ -3508,10 +3488,10 @@
     </row>
     <row r="80" spans="1:42">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C80" s="5">
         <v>43613</v>
@@ -3520,7 +3500,7 @@
         <v>91.5</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F80">
         <v>116.1</v>
@@ -3545,10 +3525,10 @@
     </row>
     <row r="81" spans="1:42">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C81" s="5">
         <v>43613</v>
@@ -3557,7 +3537,7 @@
         <v>91.5</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F81">
         <v>116.1</v>
@@ -3573,10 +3553,10 @@
     </row>
     <row r="82" spans="1:42">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C82" s="5">
         <v>43938</v>
@@ -3585,7 +3565,7 @@
         <v>60</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F82">
         <v>116.4</v>
@@ -3622,10 +3602,10 @@
     </row>
     <row r="83" spans="1:42">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C83" s="5">
         <v>43938</v>
@@ -3634,7 +3614,7 @@
         <v>60</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F83">
         <v>119.9</v>
@@ -3671,10 +3651,10 @@
     </row>
     <row r="84" spans="1:42">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C84" s="5">
         <v>43604</v>
@@ -3683,7 +3663,7 @@
         <v>82.5</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F84">
         <v>121.7</v>
@@ -3708,10 +3688,10 @@
     </row>
     <row r="85" spans="1:42">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C85" s="5">
         <v>43604</v>
@@ -3720,7 +3700,7 @@
         <v>82.5</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F85">
         <v>121.7</v>
@@ -3736,10 +3716,10 @@
     </row>
     <row r="86" spans="1:42">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C86" s="5">
         <v>43938</v>
@@ -3748,7 +3728,7 @@
         <v>60</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F86">
         <v>122.9</v>
@@ -3785,10 +3765,10 @@
     </row>
     <row r="87" spans="1:42">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C87" s="5">
         <v>43607</v>
@@ -3797,7 +3777,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F87">
         <v>123.1</v>
@@ -3839,10 +3819,10 @@
     </row>
     <row r="88" spans="1:42">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C88" s="5">
         <v>43607</v>
@@ -3851,7 +3831,7 @@
         <v>86</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F88">
         <v>123.1</v>
@@ -3867,10 +3847,10 @@
     </row>
     <row r="89" spans="1:42">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C89" s="5">
         <v>43609</v>
@@ -3879,7 +3859,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F89">
         <v>125.1</v>
@@ -3904,10 +3884,10 @@
     </row>
     <row r="90" spans="1:42">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C90" s="5">
         <v>43609</v>
@@ -3916,7 +3896,7 @@
         <v>88</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F90">
         <v>125.1</v>
@@ -3932,10 +3912,10 @@
     </row>
     <row r="91" spans="1:42">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C91" s="5">
         <v>43937</v>
@@ -3944,7 +3924,7 @@
         <v>59</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F91">
         <v>129.5</v>
@@ -3981,10 +3961,10 @@
     </row>
     <row r="92" spans="1:42">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C92" s="5">
         <v>43938</v>
@@ -3993,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F92">
         <v>134.9</v>
@@ -4030,10 +4010,10 @@
     </row>
     <row r="93" spans="1:42">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C93" s="5">
         <v>43937</v>
@@ -4042,7 +4022,7 @@
         <v>59</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F93">
         <v>139.80000000000001</v>
@@ -4079,10 +4059,10 @@
     </row>
     <row r="94" spans="1:42">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C94" s="5">
         <v>43938</v>
@@ -4091,7 +4071,7 @@
         <v>60</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F94">
         <v>140.80000000000001</v>
@@ -4128,10 +4108,10 @@
     </row>
     <row r="95" spans="1:42">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C95" s="5">
         <v>43938</v>
@@ -4140,7 +4120,7 @@
         <v>60</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F95">
         <v>141.80000000000001</v>
@@ -4177,10 +4157,10 @@
     </row>
     <row r="96" spans="1:42">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C96" s="5">
         <v>43616</v>
@@ -4189,7 +4169,7 @@
         <v>94.5</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F96">
         <v>146</v>
@@ -4214,10 +4194,10 @@
     </row>
     <row r="97" spans="1:42">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C97" s="5">
         <v>43616</v>
@@ -4226,7 +4206,7 @@
         <v>94.5</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F97">
         <v>146</v>
@@ -4242,10 +4222,10 @@
     </row>
     <row r="98" spans="1:42">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C98" s="5">
         <v>43938</v>
@@ -4254,7 +4234,7 @@
         <v>60</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F98">
         <v>153.80000000000001</v>
@@ -4291,10 +4271,10 @@
     </row>
     <row r="99" spans="1:42">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C99" s="5">
         <v>43466</v>
@@ -4326,10 +4306,10 @@
     </row>
     <row r="100" spans="1:42">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C100" s="5">
         <v>43521</v>
@@ -4364,10 +4344,10 @@
     </row>
     <row r="101" spans="1:42">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C101" s="5">
         <v>43566</v>
@@ -4391,10 +4371,10 @@
     </row>
     <row r="102" spans="1:42">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C102" s="5">
         <v>43521</v>
@@ -4411,10 +4391,10 @@
     </row>
     <row r="103" spans="1:42">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C103" s="5">
         <v>43566</v>
@@ -4430,10 +4410,10 @@
     </row>
     <row r="104" spans="1:42">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C104" s="5">
         <v>43521</v>
@@ -4451,10 +4431,10 @@
     </row>
     <row r="105" spans="1:42">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C105" s="5">
         <v>43568</v>
@@ -4472,10 +4452,10 @@
     </row>
     <row r="106" spans="1:42">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C106" s="5">
         <v>43521</v>
@@ -4490,10 +4470,10 @@
     </row>
     <row r="107" spans="1:42">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C107" s="5">
         <v>43568</v>
@@ -4508,10 +4488,10 @@
     </row>
     <row r="108" spans="1:42">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C108" s="5">
         <v>43521</v>
@@ -4529,10 +4509,10 @@
     </row>
     <row r="109" spans="1:42">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C109" s="5">
         <v>43568</v>
@@ -4550,10 +4530,10 @@
     </row>
     <row r="110" spans="1:42">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C110" s="5">
         <v>43521</v>
@@ -4568,10 +4548,10 @@
     </row>
     <row r="111" spans="1:42">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5">
         <v>43568</v>
@@ -4586,10 +4566,10 @@
     </row>
     <row r="112" spans="1:42">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C112" s="5">
         <v>43521</v>
@@ -4607,10 +4587,10 @@
     </row>
     <row r="113" spans="1:35">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C113" s="5">
         <v>43567</v>
@@ -4628,10 +4608,10 @@
     </row>
     <row r="114" spans="1:35">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C114" s="5">
         <v>43521</v>
@@ -4646,10 +4626,10 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C115" s="5">
         <v>43567</v>
@@ -4664,10 +4644,10 @@
     </row>
     <row r="116" spans="1:35">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C116" s="5">
         <v>43521</v>
@@ -4685,10 +4665,10 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C117" s="5">
         <v>43568</v>
@@ -4706,10 +4686,10 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C118" s="5">
         <v>43521</v>
@@ -4724,10 +4704,10 @@
     </row>
     <row r="119" spans="1:35">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C119" s="5">
         <v>43568</v>
@@ -4742,10 +4722,10 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C120" s="5">
         <v>43521</v>
@@ -4763,10 +4743,10 @@
     </row>
     <row r="121" spans="1:35">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C121" s="5">
         <v>43568</v>
@@ -4784,10 +4764,10 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C122" s="5">
         <v>43521</v>
@@ -4802,10 +4782,10 @@
     </row>
     <row r="123" spans="1:35">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C123" s="5">
         <v>43568</v>
@@ -4820,10 +4800,10 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C124" s="5">
         <v>43521</v>
@@ -4841,10 +4821,10 @@
     </row>
     <row r="125" spans="1:35">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C125" s="5">
         <v>43566</v>
@@ -4862,10 +4842,10 @@
     </row>
     <row r="126" spans="1:35">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C126" s="5">
         <v>43521</v>
@@ -4880,10 +4860,10 @@
     </row>
     <row r="127" spans="1:35">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C127" s="5">
         <v>43566</v>
@@ -4898,10 +4878,10 @@
     </row>
     <row r="128" spans="1:35">
       <c r="A128" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C128" s="5">
         <v>43878</v>
@@ -4929,10 +4909,10 @@
     </row>
     <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C129" s="5">
         <v>43905</v>
@@ -4948,10 +4928,10 @@
     </row>
     <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C130" s="5">
         <v>43912</v>
@@ -4967,10 +4947,10 @@
     </row>
     <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C131" s="5">
         <v>43918</v>
@@ -4991,10 +4971,10 @@
     </row>
     <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C132" s="5">
         <v>43919</v>
@@ -5010,10 +4990,10 @@
     </row>
     <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C133" s="5">
         <v>43928</v>
@@ -5029,10 +5009,10 @@
     </row>
     <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C134" s="5">
         <v>43878</v>
@@ -5060,10 +5040,10 @@
     </row>
     <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C135" s="5">
         <v>43905</v>
@@ -5079,10 +5059,10 @@
     </row>
     <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C136" s="5">
         <v>43912</v>
@@ -5098,10 +5078,10 @@
     </row>
     <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C137" s="5">
         <v>43917</v>
@@ -5122,10 +5102,10 @@
     </row>
     <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C138" s="5">
         <v>43919</v>
@@ -5141,10 +5121,10 @@
     </row>
     <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C139" s="5">
         <v>43928</v>
@@ -5160,10 +5140,10 @@
     </row>
     <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C140" s="5">
         <v>43878</v>
@@ -5203,10 +5183,10 @@
     </row>
     <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C141" s="5">
         <v>43905</v>
@@ -5222,10 +5202,10 @@
     </row>
     <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C142" s="5">
         <v>43912</v>
@@ -5241,10 +5221,10 @@
     </row>
     <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C143" s="5">
         <v>43918</v>
@@ -5265,10 +5245,10 @@
     </row>
     <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B144" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C144" s="5">
         <v>43919</v>
@@ -5284,10 +5264,10 @@
     </row>
     <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C145" s="5">
         <v>43928</v>
@@ -5303,10 +5283,10 @@
     </row>
     <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C146" s="5">
         <v>43878</v>
@@ -5346,10 +5326,10 @@
     </row>
     <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C147" s="5">
         <v>43905</v>
@@ -5365,10 +5345,10 @@
     </row>
     <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C148" s="5">
         <v>43912</v>
@@ -5384,10 +5364,10 @@
     </row>
     <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C149" s="5">
         <v>43918</v>
@@ -5408,10 +5388,10 @@
     </row>
     <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C150" s="5">
         <v>43919</v>
@@ -5427,10 +5407,10 @@
     </row>
     <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C151" s="5">
         <v>43928</v>
@@ -5446,10 +5426,10 @@
     </row>
     <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C152" s="5">
         <v>43878</v>
@@ -5489,10 +5469,10 @@
     </row>
     <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C153" s="5">
         <v>43905</v>
@@ -5508,10 +5488,10 @@
     </row>
     <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C154" s="5">
         <v>43912</v>
@@ -5527,10 +5507,10 @@
     </row>
     <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C155" s="5">
         <v>43917</v>
@@ -5551,10 +5531,10 @@
     </row>
     <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C156" s="5">
         <v>43919</v>
@@ -5570,10 +5550,10 @@
     </row>
     <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C157" s="5">
         <v>43928</v>
@@ -5589,10 +5569,10 @@
     </row>
     <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C158" s="5">
         <v>43739</v>
@@ -5604,10 +5584,10 @@
     </row>
     <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C159" s="5">
         <v>43862</v>
@@ -5619,10 +5599,10 @@
     </row>
     <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C160" s="5">
         <v>43878</v>
@@ -5661,10 +5641,10 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C161" s="5">
         <v>43905</v>
@@ -5679,10 +5659,10 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C162" s="5">
         <v>43912</v>
@@ -5697,10 +5677,10 @@
     </row>
     <row r="163" spans="1:33">
       <c r="A163" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C163" s="5">
         <v>43917</v>
@@ -5721,10 +5701,10 @@
     </row>
     <row r="164" spans="1:33">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C164" s="5">
         <v>43919</v>
@@ -5740,10 +5720,10 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C165" s="5">
         <v>43928</v>
@@ -5759,10 +5739,10 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C166" s="5">
         <v>43878</v>
@@ -5790,10 +5770,10 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C167" s="5">
         <v>43905</v>
@@ -5809,10 +5789,10 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B168" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C168" s="5">
         <v>43912</v>
@@ -5828,10 +5808,10 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C169" s="5">
         <v>43918</v>
@@ -5852,10 +5832,10 @@
     </row>
     <row r="170" spans="1:33">
       <c r="A170" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B170" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C170" s="5">
         <v>43919</v>
@@ -5871,10 +5851,10 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B171" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C171" s="5">
         <v>43928</v>
@@ -5890,10 +5870,10 @@
     </row>
     <row r="172" spans="1:33">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C172" s="5">
         <v>43878</v>
@@ -5921,10 +5901,10 @@
     </row>
     <row r="173" spans="1:33">
       <c r="A173" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C173" s="5">
         <v>43905</v>
@@ -5940,10 +5920,10 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C174" s="5">
         <v>43912</v>
@@ -5959,10 +5939,10 @@
     </row>
     <row r="175" spans="1:33">
       <c r="A175" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C175" s="5">
         <v>43917</v>
@@ -5983,10 +5963,10 @@
     </row>
     <row r="176" spans="1:33">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C176" s="5">
         <v>43919</v>
@@ -6002,10 +5982,10 @@
     </row>
     <row r="177" spans="1:39">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C177" s="5">
         <v>43928</v>
@@ -6021,10 +6001,10 @@
     </row>
     <row r="178" spans="1:39">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B178" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C178" s="5">
         <v>43878</v>
@@ -6064,10 +6044,10 @@
     </row>
     <row r="179" spans="1:39">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C179" s="5">
         <v>43905</v>
@@ -6083,10 +6063,10 @@
     </row>
     <row r="180" spans="1:39">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C180" s="5">
         <v>43912</v>
@@ -6102,10 +6082,10 @@
     </row>
     <row r="181" spans="1:39">
       <c r="A181" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C181" s="5">
         <v>43917</v>
@@ -6126,10 +6106,10 @@
     </row>
     <row r="182" spans="1:39">
       <c r="A182" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C182" s="5">
         <v>43919</v>
@@ -6145,10 +6125,10 @@
     </row>
     <row r="183" spans="1:39">
       <c r="A183" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C183" s="5">
         <v>43928</v>
@@ -6164,10 +6144,10 @@
     </row>
     <row r="184" spans="1:39">
       <c r="A184" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C184" s="5">
         <v>43878</v>
@@ -6207,10 +6187,10 @@
     </row>
     <row r="185" spans="1:39">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C185" s="5">
         <v>43905</v>
@@ -6226,10 +6206,10 @@
     </row>
     <row r="186" spans="1:39">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C186" s="5">
         <v>43912</v>
@@ -6245,10 +6225,10 @@
     </row>
     <row r="187" spans="1:39">
       <c r="A187" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C187" s="5">
         <v>43918</v>
@@ -6269,10 +6249,10 @@
     </row>
     <row r="188" spans="1:39">
       <c r="A188" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B188" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C188" s="5">
         <v>43919</v>
@@ -6288,10 +6268,10 @@
     </row>
     <row r="189" spans="1:39">
       <c r="A189" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B189" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C189" s="5">
         <v>43928</v>
@@ -6307,10 +6287,10 @@
     </row>
     <row r="190" spans="1:39">
       <c r="A190" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C190" s="5">
         <v>43878</v>
@@ -6338,10 +6318,10 @@
     </row>
     <row r="191" spans="1:39">
       <c r="A191" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C191" s="5">
         <v>43905</v>
@@ -6357,10 +6337,10 @@
     </row>
     <row r="192" spans="1:39">
       <c r="A192" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C192" s="5">
         <v>43912</v>
@@ -6376,10 +6356,10 @@
     </row>
     <row r="193" spans="1:39">
       <c r="A193" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C193" s="5">
         <v>43917</v>
@@ -6400,10 +6380,10 @@
     </row>
     <row r="194" spans="1:39">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C194" s="5">
         <v>43919</v>
@@ -6419,10 +6399,10 @@
     </row>
     <row r="195" spans="1:39">
       <c r="A195" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C195" s="5">
         <v>43928</v>
@@ -6438,10 +6418,10 @@
     </row>
     <row r="196" spans="1:39">
       <c r="A196" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C196" s="5">
         <v>43878</v>
@@ -6469,10 +6449,10 @@
     </row>
     <row r="197" spans="1:39">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C197" s="5">
         <v>43905</v>
@@ -6488,10 +6468,10 @@
     </row>
     <row r="198" spans="1:39">
       <c r="A198" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C198" s="5">
         <v>43912</v>
@@ -6507,10 +6487,10 @@
     </row>
     <row r="199" spans="1:39">
       <c r="A199" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C199" s="5">
         <v>43917</v>
@@ -6531,10 +6511,10 @@
     </row>
     <row r="200" spans="1:39">
       <c r="A200" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C200" s="5">
         <v>43919</v>
@@ -6548,10 +6528,10 @@
     </row>
     <row r="201" spans="1:39">
       <c r="A201" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C201" s="5">
         <v>43928</v>
@@ -6567,10 +6547,10 @@
     </row>
     <row r="202" spans="1:39">
       <c r="A202" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C202" s="5">
         <v>43878</v>
@@ -6610,10 +6590,10 @@
     </row>
     <row r="203" spans="1:39">
       <c r="A203" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C203" s="5">
         <v>43905</v>
@@ -6629,10 +6609,10 @@
     </row>
     <row r="204" spans="1:39">
       <c r="A204" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C204" s="5">
         <v>43912</v>
@@ -6648,10 +6628,10 @@
     </row>
     <row r="205" spans="1:39">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C205" s="5">
         <v>43918</v>
@@ -6672,10 +6652,10 @@
     </row>
     <row r="206" spans="1:39">
       <c r="A206" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C206" s="5">
         <v>43919</v>
@@ -6691,10 +6671,10 @@
     </row>
     <row r="207" spans="1:39">
       <c r="A207" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C207" s="5">
         <v>43928</v>
@@ -6710,10 +6690,10 @@
     </row>
     <row r="208" spans="1:39">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B208" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C208" s="5">
         <v>43878</v>
@@ -6753,10 +6733,10 @@
     </row>
     <row r="209" spans="1:33">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C209" s="5">
         <v>43905</v>
@@ -6772,10 +6752,10 @@
     </row>
     <row r="210" spans="1:33">
       <c r="A210" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C210" s="5">
         <v>43912</v>
@@ -6791,10 +6771,10 @@
     </row>
     <row r="211" spans="1:33">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C211" s="5">
         <v>43917</v>
@@ -6815,10 +6795,10 @@
     </row>
     <row r="212" spans="1:33">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C212" s="5">
         <v>43919</v>
@@ -6834,10 +6814,10 @@
     </row>
     <row r="213" spans="1:33">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B213" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C213" s="5">
         <v>43928</v>
@@ -6853,10 +6833,10 @@
     </row>
     <row r="214" spans="1:33">
       <c r="A214" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B214" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C214" s="5">
         <v>43878</v>
@@ -6884,10 +6864,10 @@
     </row>
     <row r="215" spans="1:33">
       <c r="A215" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B215" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C215" s="5">
         <v>43905</v>
@@ -6903,10 +6883,10 @@
     </row>
     <row r="216" spans="1:33">
       <c r="A216" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B216" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C216" s="5">
         <v>43912</v>
@@ -6922,10 +6902,10 @@
     </row>
     <row r="217" spans="1:33">
       <c r="A217" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C217" s="5">
         <v>43918</v>
@@ -6946,10 +6926,10 @@
     </row>
     <row r="218" spans="1:33">
       <c r="A218" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C218" s="5">
         <v>43919</v>
@@ -6965,10 +6945,10 @@
     </row>
     <row r="219" spans="1:33">
       <c r="A219" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C219" s="5">
         <v>43928</v>
@@ -6984,10 +6964,10 @@
     </row>
     <row r="220" spans="1:33">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B220" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C220" s="5">
         <v>43878</v>
@@ -7015,10 +6995,10 @@
     </row>
     <row r="221" spans="1:33">
       <c r="A221" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B221" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C221" s="5">
         <v>43905</v>
@@ -7034,10 +7014,10 @@
     </row>
     <row r="222" spans="1:33">
       <c r="A222" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C222" s="5">
         <v>43912</v>
@@ -7053,10 +7033,10 @@
     </row>
     <row r="223" spans="1:33">
       <c r="A223" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B223" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C223" s="5">
         <v>43917</v>
@@ -7077,10 +7057,10 @@
     </row>
     <row r="224" spans="1:33">
       <c r="A224" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B224" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C224" s="5">
         <v>43919</v>
@@ -7094,10 +7074,10 @@
     </row>
     <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B225" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C225" s="5">
         <v>43928</v>
@@ -7113,10 +7093,10 @@
     </row>
     <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C226" s="5">
         <v>43832</v>
@@ -7125,7 +7105,7 @@
         <v>80</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F226">
         <v>26.9</v>
@@ -7155,10 +7135,10 @@
     </row>
     <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B227" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C227" s="5">
         <v>43832</v>
@@ -7167,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F227">
         <v>27.1</v>
@@ -7197,10 +7177,10 @@
     </row>
     <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C228" s="5">
         <v>43832</v>
@@ -7209,7 +7189,7 @@
         <v>80</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F228">
         <v>27.6</v>
@@ -7239,10 +7219,10 @@
     </row>
     <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C229" s="5">
         <v>43832</v>
@@ -7251,7 +7231,7 @@
         <v>80</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F229">
         <v>27.7</v>
@@ -7293,10 +7273,10 @@
     </row>
     <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C230" s="5">
         <v>43832</v>
@@ -7305,7 +7285,7 @@
         <v>80</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F230">
         <v>28.7</v>
@@ -7335,10 +7315,10 @@
     </row>
     <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C231" s="5">
         <v>43832</v>
@@ -7347,7 +7327,7 @@
         <v>80</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F231">
         <v>29.1</v>
@@ -7377,10 +7357,10 @@
     </row>
     <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B232" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C232" s="5">
         <v>43832</v>
@@ -7389,7 +7369,7 @@
         <v>80</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F232">
         <v>29.4</v>
@@ -7419,10 +7399,10 @@
     </row>
     <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B233" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C233" s="5">
         <v>43832</v>
@@ -7431,7 +7411,7 @@
         <v>80</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F233">
         <v>31.8</v>
@@ -7461,10 +7441,10 @@
     </row>
     <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C234" s="5">
         <v>43832</v>
@@ -7473,7 +7453,7 @@
         <v>80</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F234">
         <v>75.900000000000006</v>
@@ -7515,10 +7495,10 @@
     </row>
     <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C235" s="5">
         <v>43832</v>
@@ -7527,7 +7507,7 @@
         <v>80</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F235">
         <v>76.900000000000006</v>
@@ -7545,10 +7525,10 @@
     </row>
     <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B236" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C236" s="5">
         <v>43832</v>
@@ -7557,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F236">
         <v>77.5</v>
@@ -7587,10 +7567,10 @@
     </row>
     <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C237" s="5">
         <v>43832</v>
@@ -7599,7 +7579,7 @@
         <v>80</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F237">
         <v>77.900000000000006</v>
@@ -7629,10 +7609,10 @@
     </row>
     <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B238" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C238" s="5">
         <v>43832</v>
@@ -7641,7 +7621,7 @@
         <v>80</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F238">
         <v>80.900000000000006</v>
@@ -7671,10 +7651,10 @@
     </row>
     <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B239" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C239" s="5">
         <v>43832</v>
@@ -7683,7 +7663,7 @@
         <v>80</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F239">
         <v>81.8</v>
@@ -7703,10 +7683,10 @@
     </row>
     <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C240" s="5">
         <v>43832</v>
@@ -7715,7 +7695,7 @@
         <v>80</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F240">
         <v>82.8</v>
@@ -7733,10 +7713,10 @@
     </row>
     <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B241" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C241" s="5">
         <v>43832</v>
@@ -7745,7 +7725,7 @@
         <v>80</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F241">
         <v>83.8</v>
@@ -7775,10 +7755,10 @@
     </row>
     <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C242" s="5">
         <v>43752</v>
@@ -7790,10 +7770,10 @@
     </row>
     <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C243" s="5">
         <v>43804</v>
@@ -7807,10 +7787,10 @@
     </row>
     <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C244" s="5">
         <v>43752</v>
@@ -7822,10 +7802,10 @@
     </row>
     <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C245" s="5">
         <v>43804</v>
@@ -7839,10 +7819,10 @@
     </row>
     <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C246" s="5">
         <v>43752</v>
@@ -7854,10 +7834,10 @@
     </row>
     <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C247" s="5">
         <v>43804</v>
@@ -7871,10 +7851,10 @@
     </row>
     <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C248" s="5">
         <v>43752</v>
@@ -7886,10 +7866,10 @@
     </row>
     <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C249" s="5">
         <v>43804</v>
@@ -7903,10 +7883,10 @@
     </row>
     <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C250" s="5">
         <v>43752</v>
@@ -7945,10 +7925,10 @@
     </row>
     <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C251" s="5">
         <v>43784</v>
@@ -7963,10 +7943,10 @@
     </row>
     <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C252" s="5">
         <v>43789</v>
@@ -7981,10 +7961,10 @@
     </row>
     <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C253" s="5">
         <v>43798</v>
@@ -7999,10 +7979,10 @@
     </row>
     <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B254" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C254" s="5">
         <v>43804</v>
@@ -8016,10 +7996,10 @@
     </row>
     <row r="255" spans="1:39">
       <c r="A255" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B255" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C255" s="5">
         <v>43806</v>
@@ -8034,10 +8014,10 @@
     </row>
     <row r="256" spans="1:39">
       <c r="A256" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B256" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C256" s="5">
         <v>43816</v>
@@ -8052,10 +8032,10 @@
     </row>
     <row r="257" spans="1:39">
       <c r="A257" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B257" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C257" s="5">
         <v>43752</v>
@@ -8098,10 +8078,10 @@
     </row>
     <row r="258" spans="1:39">
       <c r="A258" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B258" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C258" s="5">
         <v>43784</v>
@@ -8117,10 +8097,10 @@
     </row>
     <row r="259" spans="1:39">
       <c r="A259" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B259" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C259" s="5">
         <v>43789</v>
@@ -8136,10 +8116,10 @@
     </row>
     <row r="260" spans="1:39">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C260" s="5">
         <v>43798</v>
@@ -8155,10 +8135,10 @@
     </row>
     <row r="261" spans="1:39">
       <c r="A261" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B261" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C261" s="5">
         <v>43804</v>
@@ -8173,10 +8153,10 @@
     </row>
     <row r="262" spans="1:39">
       <c r="A262" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B262" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C262" s="5">
         <v>43806</v>
@@ -8191,10 +8171,10 @@
     </row>
     <row r="263" spans="1:39">
       <c r="A263" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B263" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C263" s="5">
         <v>43816</v>
@@ -8209,10 +8189,10 @@
     </row>
     <row r="264" spans="1:39">
       <c r="A264" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B264" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C264" s="5">
         <v>43752</v>
@@ -8224,10 +8204,10 @@
     </row>
     <row r="265" spans="1:39">
       <c r="A265" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C265" s="5">
         <v>43804</v>
@@ -8241,10 +8221,10 @@
     </row>
     <row r="266" spans="1:39">
       <c r="A266" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C266" s="5">
         <v>43752</v>
@@ -8256,10 +8236,10 @@
     </row>
     <row r="267" spans="1:39">
       <c r="A267" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C267" s="5">
         <v>43804</v>
@@ -8273,10 +8253,10 @@
     </row>
     <row r="268" spans="1:39">
       <c r="A268" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B268" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C268" s="5">
         <v>43752</v>
@@ -8300,10 +8280,10 @@
     </row>
     <row r="269" spans="1:39">
       <c r="A269" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B269" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C269" s="5">
         <v>43804</v>
@@ -8317,10 +8297,10 @@
     </row>
     <row r="270" spans="1:39">
       <c r="A270" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C270" s="5">
         <v>43752</v>
@@ -8332,10 +8312,10 @@
     </row>
     <row r="271" spans="1:39">
       <c r="A271" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B271" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C271" s="5">
         <v>43804</v>
@@ -8349,10 +8329,10 @@
     </row>
     <row r="272" spans="1:39">
       <c r="A272" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B272" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C272" s="5">
         <v>43752</v>
@@ -8364,10 +8344,10 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B273" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C273" s="5">
         <v>43804</v>
@@ -8381,10 +8361,10 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C274" s="5">
         <v>43752</v>
@@ -8396,10 +8376,10 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C275" s="5">
         <v>43804</v>
@@ -8413,10 +8393,10 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B276" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C276" s="5">
         <v>43752</v>
@@ -8428,10 +8408,10 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B277" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C277" s="5">
         <v>43804</v>
@@ -8445,10 +8425,10 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C278" s="5">
         <v>43752</v>
@@ -8460,10 +8440,10 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B279" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C279" s="5">
         <v>43804</v>
@@ -8477,10 +8457,10 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B280" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C280" s="5">
         <v>43752</v>
@@ -8492,10 +8472,10 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B281" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C281" s="5">
         <v>43804</v>
@@ -8509,10 +8489,10 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B282" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C282" s="5">
         <v>43752</v>
@@ -8524,10 +8504,10 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B283" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C283" s="5">
         <v>43804</v>
@@ -8541,10 +8521,10 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B284" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C284" s="5">
         <v>43939</v>
@@ -8553,7 +8533,7 @@
         <v>91</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F284">
         <v>112.8</v>
@@ -8588,10 +8568,10 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B285" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C285" s="5">
         <v>43939</v>
@@ -8600,7 +8580,7 @@
         <v>91</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F285">
         <v>115.7</v>
@@ -8647,10 +8627,10 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B286" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C286" s="5">
         <v>43939</v>
@@ -8659,7 +8639,7 @@
         <v>91</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F286">
         <v>124.1</v>
@@ -8691,10 +8671,10 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B287" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C287" s="5">
         <v>43939</v>
@@ -8703,7 +8683,7 @@
         <v>91</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F287">
         <v>125</v>
@@ -8735,10 +8715,10 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B288" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C288" s="5">
         <v>43939</v>
@@ -8747,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F288">
         <v>127.2</v>
@@ -8779,10 +8759,10 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B289" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C289" s="5">
         <v>43939</v>
@@ -8791,7 +8771,7 @@
         <v>91</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F289">
         <v>129.6</v>
@@ -8823,10 +8803,10 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B290" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C290" s="5">
         <v>43939</v>
@@ -8835,7 +8815,7 @@
         <v>91</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F290">
         <v>132.1</v>
@@ -8867,10 +8847,10 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B291" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C291" s="5">
         <v>43939</v>
@@ -8879,7 +8859,7 @@
         <v>91</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F291">
         <v>134.19999999999999</v>
@@ -8911,10 +8891,10 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B292" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C292" s="5">
         <v>43939</v>
@@ -8923,7 +8903,7 @@
         <v>91</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F292">
         <v>199.2</v>
@@ -8959,10 +8939,10 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B293" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C293" s="5">
         <v>43939</v>
@@ -8971,7 +8951,7 @@
         <v>91</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F293">
         <v>199.8</v>
@@ -9007,10 +8987,10 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B294" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C294" s="5">
         <v>43939</v>
@@ -9019,7 +8999,7 @@
         <v>91</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F294">
         <v>208.3</v>
@@ -9067,10 +9047,10 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B295" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C295" s="5">
         <v>43939</v>
@@ -9079,7 +9059,7 @@
         <v>91</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F295">
         <v>210.9</v>
@@ -9116,10 +9096,10 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B296" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C296" s="5">
         <v>43939</v>
@@ -9128,7 +9108,7 @@
         <v>91</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F296">
         <v>212.4</v>
@@ -9164,10 +9144,10 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B297" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C297" s="5">
         <v>43939</v>
@@ -9176,7 +9156,7 @@
         <v>91</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F297">
         <v>222.1</v>
@@ -9213,10 +9193,10 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B298" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C298" s="5">
         <v>43939</v>
@@ -9225,7 +9205,7 @@
         <v>91</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F298">
         <v>222.9</v>
@@ -9262,10 +9242,10 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B299" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C299" s="5">
         <v>43939</v>
@@ -9274,7 +9254,7 @@
         <v>91</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F299">
         <v>234.3</v>
@@ -9308,10 +9288,10 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B300" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C300" s="5">
         <v>43859</v>
@@ -9353,10 +9333,10 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B301" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C301" s="5">
         <v>43887</v>
@@ -9374,10 +9354,10 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B302" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C302" s="5">
         <v>43893</v>
@@ -9395,10 +9375,10 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B303" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C303" s="5">
         <v>43903</v>
@@ -9416,10 +9396,10 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B304" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C304" s="5">
         <v>43908</v>
@@ -9439,10 +9419,10 @@
     </row>
     <row r="305" spans="1:39">
       <c r="A305" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B305" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C305" s="5">
         <v>43910</v>
@@ -9460,10 +9440,10 @@
     </row>
     <row r="306" spans="1:39">
       <c r="A306" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B306" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C306" s="5">
         <v>43916</v>
@@ -9481,10 +9461,10 @@
     </row>
     <row r="307" spans="1:39">
       <c r="A307" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C307" s="5">
         <v>43923</v>
@@ -9502,10 +9482,10 @@
     </row>
     <row r="308" spans="1:39">
       <c r="A308" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B308" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C308" s="5">
         <v>43930</v>
@@ -9523,10 +9503,10 @@
     </row>
     <row r="309" spans="1:39">
       <c r="A309" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B309" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C309" s="5">
         <v>43936</v>
@@ -9541,10 +9521,10 @@
     </row>
     <row r="310" spans="1:39">
       <c r="A310" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B310" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C310" s="5">
         <v>43908</v>
@@ -9561,10 +9541,10 @@
     </row>
     <row r="311" spans="1:39">
       <c r="A311" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B311" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C311" s="5">
         <v>43908</v>
@@ -9580,10 +9560,10 @@
     </row>
     <row r="312" spans="1:39">
       <c r="A312" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B312" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C312" s="5">
         <v>43859</v>
@@ -9627,10 +9607,10 @@
     </row>
     <row r="313" spans="1:39">
       <c r="A313" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B313" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C313" s="5">
         <v>43887</v>
@@ -9647,10 +9627,10 @@
     </row>
     <row r="314" spans="1:39">
       <c r="A314" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B314" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C314" s="5">
         <v>43893</v>
@@ -9667,10 +9647,10 @@
     </row>
     <row r="315" spans="1:39">
       <c r="A315" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B315" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C315" s="5">
         <v>43903</v>
@@ -9687,10 +9667,10 @@
     </row>
     <row r="316" spans="1:39">
       <c r="A316" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B316" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C316" s="5">
         <v>43908</v>
@@ -9709,10 +9689,10 @@
     </row>
     <row r="317" spans="1:39">
       <c r="A317" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B317" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C317" s="5">
         <v>43910</v>
@@ -9729,10 +9709,10 @@
     </row>
     <row r="318" spans="1:39">
       <c r="A318" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B318" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C318" s="5">
         <v>43916</v>
@@ -9749,10 +9729,10 @@
     </row>
     <row r="319" spans="1:39">
       <c r="A319" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B319" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C319" s="5">
         <v>43923</v>
@@ -9766,10 +9746,10 @@
     </row>
     <row r="320" spans="1:39">
       <c r="A320" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B320" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C320" s="5">
         <v>43930</v>
@@ -9783,10 +9763,10 @@
     </row>
     <row r="321" spans="1:35">
       <c r="A321" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B321" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C321" s="5">
         <v>43908</v>
@@ -9802,10 +9782,10 @@
     </row>
     <row r="322" spans="1:35">
       <c r="A322" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B322" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C322" s="5">
         <v>43908</v>
@@ -9821,10 +9801,10 @@
     </row>
     <row r="323" spans="1:35">
       <c r="A323" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B323" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C323" s="5">
         <v>43908</v>
@@ -9842,10 +9822,10 @@
     </row>
     <row r="324" spans="1:35">
       <c r="A324" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B324" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C324" s="5">
         <v>43908</v>
@@ -9861,10 +9841,10 @@
     </row>
     <row r="325" spans="1:35">
       <c r="A325" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B325" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C325" s="5">
         <v>43908</v>
@@ -9882,10 +9862,10 @@
     </row>
     <row r="326" spans="1:35">
       <c r="A326" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B326" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C326" s="5">
         <v>43908</v>
@@ -9901,10 +9881,10 @@
     </row>
     <row r="327" spans="1:35">
       <c r="A327" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B327" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C327" s="5">
         <v>43908</v>
@@ -9921,10 +9901,10 @@
     </row>
     <row r="328" spans="1:35">
       <c r="A328" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B328" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C328" s="5">
         <v>43908</v>
@@ -9940,10 +9920,10 @@
     </row>
     <row r="329" spans="1:35">
       <c r="A329" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B329" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C329" s="5">
         <v>43908</v>
@@ -9961,10 +9941,10 @@
     </row>
     <row r="330" spans="1:35">
       <c r="A330" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B330" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C330" s="5">
         <v>43908</v>
@@ -9980,10 +9960,10 @@
     </row>
     <row r="331" spans="1:35">
       <c r="A331" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B331" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C331" s="5">
         <v>43908</v>
@@ -10001,10 +9981,10 @@
     </row>
     <row r="332" spans="1:35">
       <c r="A332" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B332" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C332" s="5">
         <v>43908</v>
@@ -10020,10 +10000,10 @@
     </row>
     <row r="333" spans="1:35">
       <c r="A333" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B333" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C333" s="5">
         <v>43549</v>
@@ -10032,7 +10012,7 @@
         <v>88</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F333">
         <v>80.712500000000006</v>
@@ -10056,10 +10036,10 @@
     </row>
     <row r="334" spans="1:35">
       <c r="A334" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B334" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C334" s="5">
         <v>43549</v>
@@ -10068,7 +10048,7 @@
         <v>88</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F334">
         <v>96.739285714285714</v>
@@ -10092,10 +10072,10 @@
     </row>
     <row r="335" spans="1:35">
       <c r="A335" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B335" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C335" s="5">
         <v>43549</v>
@@ -10104,7 +10084,7 @@
         <v>88</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F335">
         <v>97.174999999999997</v>
@@ -10128,10 +10108,10 @@
     </row>
     <row r="336" spans="1:35">
       <c r="A336" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B336" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C336" s="5">
         <v>43549</v>
@@ -10140,7 +10120,7 @@
         <v>88</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F336">
         <v>98.087500000000006</v>
@@ -10164,10 +10144,10 @@
     </row>
     <row r="337" spans="1:39">
       <c r="A337" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B337" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C337" s="5">
         <v>43549</v>
@@ -10176,7 +10156,7 @@
         <v>88</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F337">
         <v>98.45</v>
@@ -10200,10 +10180,10 @@
     </row>
     <row r="338" spans="1:39">
       <c r="A338" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B338" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C338" s="5">
         <v>43549</v>
@@ -10212,7 +10192,7 @@
         <v>88</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F338">
         <v>102.75</v>
@@ -10236,10 +10216,10 @@
     </row>
     <row r="339" spans="1:39">
       <c r="A339" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B339" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C339" s="5">
         <v>43549</v>
@@ -10248,7 +10228,7 @@
         <v>88</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F339">
         <v>111.22499999999999</v>
@@ -10272,10 +10252,10 @@
     </row>
     <row r="340" spans="1:39">
       <c r="A340" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B340" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C340" s="5">
         <v>43549</v>
@@ -10284,7 +10264,7 @@
         <v>88</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F340">
         <v>111.95</v>
@@ -10308,10 +10288,10 @@
     </row>
     <row r="341" spans="1:39">
       <c r="A341" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B341" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C341" s="5">
         <v>43549</v>
@@ -10320,7 +10300,7 @@
         <v>88</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F341">
         <v>113.6875</v>
@@ -10344,10 +10324,10 @@
     </row>
     <row r="342" spans="1:39">
       <c r="A342" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B342" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C342" s="5">
         <v>43549</v>
@@ -10356,7 +10336,7 @@
         <v>88</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F342">
         <v>117.72499999999999</v>
@@ -10380,10 +10360,10 @@
     </row>
     <row r="343" spans="1:39">
       <c r="A343" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B343" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C343" s="5">
         <v>43462</v>
@@ -10418,10 +10398,10 @@
     </row>
     <row r="344" spans="1:39">
       <c r="A344" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B344" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C344" s="5">
         <v>43494</v>
@@ -10441,10 +10421,10 @@
     </row>
     <row r="345" spans="1:39">
       <c r="A345" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B345" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C345" s="5">
         <v>43507</v>
@@ -10464,10 +10444,10 @@
     </row>
     <row r="346" spans="1:39">
       <c r="A346" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B346" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C346" s="5">
         <v>43515</v>
@@ -10487,10 +10467,10 @@
     </row>
     <row r="347" spans="1:39">
       <c r="A347" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B347" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C347" s="5">
         <v>43509</v>
@@ -10511,10 +10491,10 @@
     </row>
     <row r="348" spans="1:39">
       <c r="A348" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B348" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C348" s="5">
         <v>43523</v>
@@ -10534,10 +10514,10 @@
     </row>
     <row r="349" spans="1:39">
       <c r="A349" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B349" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C349" s="5">
         <v>43531</v>
@@ -10557,10 +10537,10 @@
     </row>
     <row r="350" spans="1:39">
       <c r="A350" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B350" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C350" s="5">
         <v>43462</v>
@@ -10589,10 +10569,10 @@
     </row>
     <row r="351" spans="1:39">
       <c r="A351" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B351" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C351" s="5">
         <v>43494</v>
@@ -10612,10 +10592,10 @@
     </row>
     <row r="352" spans="1:39">
       <c r="A352" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B352" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C352" s="5">
         <v>43507</v>
@@ -10635,10 +10615,10 @@
     </row>
     <row r="353" spans="1:39">
       <c r="A353" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B353" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C353" s="5">
         <v>43515</v>
@@ -10658,10 +10638,10 @@
     </row>
     <row r="354" spans="1:39">
       <c r="A354" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B354" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C354" s="5">
         <v>43509</v>
@@ -10682,10 +10662,10 @@
     </row>
     <row r="355" spans="1:39">
       <c r="A355" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B355" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C355" s="5">
         <v>43523</v>
@@ -10705,10 +10685,10 @@
     </row>
     <row r="356" spans="1:39">
       <c r="A356" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B356" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C356" s="5">
         <v>43531</v>
@@ -10728,10 +10708,10 @@
     </row>
     <row r="357" spans="1:39">
       <c r="A357" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B357" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C357" s="5">
         <v>43462</v>
@@ -10760,10 +10740,10 @@
     </row>
     <row r="358" spans="1:39">
       <c r="A358" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B358" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C358" s="5">
         <v>43494</v>
@@ -10783,10 +10763,10 @@
     </row>
     <row r="359" spans="1:39">
       <c r="A359" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B359" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C359" s="5">
         <v>43507</v>
@@ -10806,10 +10786,10 @@
     </row>
     <row r="360" spans="1:39">
       <c r="A360" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B360" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C360" s="5">
         <v>43515</v>
@@ -10826,10 +10806,10 @@
     </row>
     <row r="361" spans="1:39">
       <c r="A361" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B361" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C361" s="5">
         <v>43509</v>
@@ -10850,10 +10830,10 @@
     </row>
     <row r="362" spans="1:39">
       <c r="A362" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B362" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C362" s="5">
         <v>43523</v>
@@ -10870,10 +10850,10 @@
     </row>
     <row r="363" spans="1:39">
       <c r="A363" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B363" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C363" s="5">
         <v>43531</v>
@@ -10893,10 +10873,10 @@
     </row>
     <row r="364" spans="1:39">
       <c r="A364" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B364" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C364" s="5">
         <v>43462</v>
@@ -10925,10 +10905,10 @@
     </row>
     <row r="365" spans="1:39">
       <c r="A365" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B365" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C365" s="5">
         <v>43494</v>
@@ -10948,10 +10928,10 @@
     </row>
     <row r="366" spans="1:39">
       <c r="A366" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B366" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C366" s="5">
         <v>43507</v>
@@ -10971,10 +10951,10 @@
     </row>
     <row r="367" spans="1:39">
       <c r="A367" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B367" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C367" s="5">
         <v>43515</v>
@@ -10994,10 +10974,10 @@
     </row>
     <row r="368" spans="1:39">
       <c r="A368" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B368" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C368" s="5">
         <v>43509</v>
@@ -11018,10 +10998,10 @@
     </row>
     <row r="369" spans="1:39">
       <c r="A369" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B369" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C369" s="5">
         <v>43523</v>
@@ -11041,10 +11021,10 @@
     </row>
     <row r="370" spans="1:39">
       <c r="A370" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B370" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C370" s="5">
         <v>43531</v>
@@ -11064,10 +11044,10 @@
     </row>
     <row r="371" spans="1:39">
       <c r="A371" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B371" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C371" s="5">
         <v>43462</v>
@@ -11096,10 +11076,10 @@
     </row>
     <row r="372" spans="1:39">
       <c r="A372" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B372" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C372" s="5">
         <v>43494</v>
@@ -11119,10 +11099,10 @@
     </row>
     <row r="373" spans="1:39">
       <c r="A373" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B373" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C373" s="5">
         <v>43507</v>
@@ -11142,10 +11122,10 @@
     </row>
     <row r="374" spans="1:39">
       <c r="A374" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B374" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C374" s="5">
         <v>43515</v>
@@ -11165,10 +11145,10 @@
     </row>
     <row r="375" spans="1:39">
       <c r="A375" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B375" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C375" s="5">
         <v>43509</v>
@@ -11189,10 +11169,10 @@
     </row>
     <row r="376" spans="1:39">
       <c r="A376" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B376" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C376" s="5">
         <v>43523</v>
@@ -11212,10 +11192,10 @@
     </row>
     <row r="377" spans="1:39">
       <c r="A377" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B377" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C377" s="5">
         <v>43531</v>
@@ -11235,10 +11215,10 @@
     </row>
     <row r="378" spans="1:39">
       <c r="A378" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B378" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C378" s="5">
         <v>43462</v>
@@ -11267,10 +11247,10 @@
     </row>
     <row r="379" spans="1:39">
       <c r="A379" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B379" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C379" s="5">
         <v>43494</v>
@@ -11290,10 +11270,10 @@
     </row>
     <row r="380" spans="1:39">
       <c r="A380" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B380" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C380" s="5">
         <v>43507</v>
@@ -11313,10 +11293,10 @@
     </row>
     <row r="381" spans="1:39">
       <c r="A381" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B381" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C381" s="5">
         <v>43515</v>
@@ -11336,10 +11316,10 @@
     </row>
     <row r="382" spans="1:39">
       <c r="A382" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B382" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C382" s="5">
         <v>43509</v>
@@ -11360,10 +11340,10 @@
     </row>
     <row r="383" spans="1:39">
       <c r="A383" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B383" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C383" s="5">
         <v>43523</v>
@@ -11383,10 +11363,10 @@
     </row>
     <row r="384" spans="1:39">
       <c r="A384" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B384" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C384" s="5">
         <v>43531</v>
@@ -11406,10 +11386,10 @@
     </row>
     <row r="385" spans="1:39">
       <c r="A385" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B385" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C385" s="5">
         <v>43462</v>
@@ -11438,10 +11418,10 @@
     </row>
     <row r="386" spans="1:39">
       <c r="A386" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B386" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C386" s="5">
         <v>43494</v>
@@ -11461,10 +11441,10 @@
     </row>
     <row r="387" spans="1:39">
       <c r="A387" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B387" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C387" s="5">
         <v>43507</v>
@@ -11484,10 +11464,10 @@
     </row>
     <row r="388" spans="1:39">
       <c r="A388" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B388" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C388" s="5">
         <v>43515</v>
@@ -11504,10 +11484,10 @@
     </row>
     <row r="389" spans="1:39">
       <c r="A389" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B389" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C389" s="5">
         <v>43509</v>
@@ -11528,10 +11508,10 @@
     </row>
     <row r="390" spans="1:39">
       <c r="A390" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B390" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C390" s="5">
         <v>43523</v>
@@ -11551,10 +11531,10 @@
     </row>
     <row r="391" spans="1:39">
       <c r="A391" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B391" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C391" s="5">
         <v>43531</v>
@@ -11574,10 +11554,10 @@
     </row>
     <row r="392" spans="1:39">
       <c r="A392" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B392" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C392" s="5">
         <v>43462</v>
@@ -11606,10 +11586,10 @@
     </row>
     <row r="393" spans="1:39">
       <c r="A393" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B393" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C393" s="5">
         <v>43494</v>
@@ -11629,10 +11609,10 @@
     </row>
     <row r="394" spans="1:39">
       <c r="A394" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B394" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C394" s="5">
         <v>43507</v>
@@ -11652,10 +11632,10 @@
     </row>
     <row r="395" spans="1:39">
       <c r="A395" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B395" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C395" s="5">
         <v>43515</v>
@@ -11672,10 +11652,10 @@
     </row>
     <row r="396" spans="1:39">
       <c r="A396" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B396" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C396" s="5">
         <v>43509</v>
@@ -11696,10 +11676,10 @@
     </row>
     <row r="397" spans="1:39">
       <c r="A397" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B397" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C397" s="5">
         <v>43523</v>
@@ -11719,10 +11699,10 @@
     </row>
     <row r="398" spans="1:39">
       <c r="A398" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B398" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C398" s="5">
         <v>43531</v>
@@ -11742,10 +11722,10 @@
     </row>
     <row r="399" spans="1:39">
       <c r="A399" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B399" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C399" s="5">
         <v>43462</v>
@@ -11774,10 +11754,10 @@
     </row>
     <row r="400" spans="1:39">
       <c r="A400" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B400" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C400" s="5">
         <v>43494</v>
@@ -11797,10 +11777,10 @@
     </row>
     <row r="401" spans="1:66">
       <c r="A401" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B401" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C401" s="5">
         <v>43507</v>
@@ -11820,10 +11800,10 @@
     </row>
     <row r="402" spans="1:66">
       <c r="A402" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B402" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C402" s="5">
         <v>43515</v>
@@ -11840,10 +11820,10 @@
     </row>
     <row r="403" spans="1:66">
       <c r="A403" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B403" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C403" s="5">
         <v>43509</v>
@@ -11864,10 +11844,10 @@
     </row>
     <row r="404" spans="1:66">
       <c r="A404" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B404" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C404" s="5">
         <v>43523</v>
@@ -11887,10 +11867,10 @@
     </row>
     <row r="405" spans="1:66">
       <c r="A405" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B405" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C405" s="5">
         <v>43531</v>
@@ -11910,10 +11890,10 @@
     </row>
     <row r="406" spans="1:66">
       <c r="A406" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B406" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C406" s="5">
         <v>43462</v>
@@ -11942,10 +11922,10 @@
     </row>
     <row r="407" spans="1:66">
       <c r="A407" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B407" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C407" s="5">
         <v>43494</v>
@@ -11965,10 +11945,10 @@
     </row>
     <row r="408" spans="1:66">
       <c r="A408" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B408" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C408" s="5">
         <v>43507</v>
@@ -11988,10 +11968,10 @@
     </row>
     <row r="409" spans="1:66">
       <c r="A409" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B409" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C409" s="5">
         <v>43515</v>
@@ -12011,10 +11991,10 @@
     </row>
     <row r="410" spans="1:66">
       <c r="A410" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B410" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C410" s="5">
         <v>43509</v>
@@ -12035,10 +12015,10 @@
     </row>
     <row r="411" spans="1:66">
       <c r="A411" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B411" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C411" s="5">
         <v>43523</v>
@@ -12058,10 +12038,10 @@
     </row>
     <row r="412" spans="1:66">
       <c r="A412" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B412" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C412" s="5">
         <v>43531</v>
@@ -12081,10 +12061,10 @@
     </row>
     <row r="413" spans="1:66">
       <c r="A413" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B413" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C413" s="9">
         <v>43865</v>
@@ -12168,10 +12148,10 @@
     </row>
     <row r="414" spans="1:66">
       <c r="A414" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B414" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C414" s="9">
         <v>43878</v>
@@ -12253,10 +12233,10 @@
     </row>
     <row r="415" spans="1:66">
       <c r="A415" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B415" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C415" s="9">
         <v>43886</v>
@@ -12338,10 +12318,10 @@
     </row>
     <row r="416" spans="1:66">
       <c r="A416" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B416" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C416" s="9">
         <v>43894</v>
@@ -12422,10 +12402,10 @@
     </row>
     <row r="417" spans="1:66">
       <c r="A417" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B417" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C417" s="9">
         <v>43903</v>
@@ -12506,10 +12486,10 @@
     </row>
     <row r="418" spans="1:66">
       <c r="A418" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B418" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C418" s="9">
         <v>43908</v>
@@ -12589,10 +12569,10 @@
     </row>
     <row r="419" spans="1:66">
       <c r="A419" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C419" s="9">
         <v>43913</v>
@@ -12672,10 +12652,10 @@
     </row>
     <row r="420" spans="1:66">
       <c r="A420" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B420" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C420" s="9">
         <v>43920</v>
@@ -12755,10 +12735,10 @@
     </row>
     <row r="421" spans="1:66">
       <c r="A421" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B421" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C421" s="9">
         <v>43928</v>
@@ -12838,10 +12818,10 @@
     </row>
     <row r="422" spans="1:66">
       <c r="A422" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B422" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C422" s="9">
         <v>43938</v>
@@ -12921,10 +12901,10 @@
     </row>
     <row r="423" spans="1:66">
       <c r="A423" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B423" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C423" s="9">
         <v>43945</v>
@@ -13004,10 +12984,10 @@
     </row>
     <row r="424" spans="1:66">
       <c r="A424" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B424" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C424" s="9">
         <v>43865</v>
@@ -13087,10 +13067,10 @@
     </row>
     <row r="425" spans="1:66">
       <c r="A425" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B425" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C425" s="9">
         <v>43878</v>
@@ -13170,10 +13150,10 @@
     </row>
     <row r="426" spans="1:66">
       <c r="A426" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B426" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C426" s="9">
         <v>43886</v>
@@ -13253,10 +13233,10 @@
     </row>
     <row r="427" spans="1:66">
       <c r="A427" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B427" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C427" s="9">
         <v>43894</v>
@@ -13336,10 +13316,10 @@
     </row>
     <row r="428" spans="1:66">
       <c r="A428" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B428" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C428" s="9">
         <v>43903</v>
@@ -13419,10 +13399,10 @@
     </row>
     <row r="429" spans="1:66">
       <c r="A429" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B429" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C429" s="9">
         <v>43908</v>
@@ -13502,10 +13482,10 @@
     </row>
     <row r="430" spans="1:66">
       <c r="A430" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B430" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C430" s="9">
         <v>43913</v>
@@ -13585,10 +13565,10 @@
     </row>
     <row r="431" spans="1:66">
       <c r="A431" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B431" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C431" s="9">
         <v>43920</v>
@@ -13668,10 +13648,10 @@
     </row>
     <row r="432" spans="1:66">
       <c r="A432" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B432" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C432" s="9">
         <v>43928</v>
@@ -13751,10 +13731,10 @@
     </row>
     <row r="433" spans="1:66">
       <c r="A433" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B433" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C433" s="9">
         <v>43938</v>
@@ -13834,10 +13814,10 @@
     </row>
     <row r="434" spans="1:66">
       <c r="A434" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B434" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C434" s="9">
         <v>43945</v>
@@ -13917,10 +13897,10 @@
     </row>
     <row r="435" spans="1:66">
       <c r="A435" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B435" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C435" s="9">
         <v>43865</v>
@@ -14000,10 +13980,10 @@
     </row>
     <row r="436" spans="1:66">
       <c r="A436" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B436" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C436" s="9">
         <v>43878</v>
@@ -14083,10 +14063,10 @@
     </row>
     <row r="437" spans="1:66">
       <c r="A437" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B437" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C437" s="9">
         <v>43886</v>
@@ -14166,10 +14146,10 @@
     </row>
     <row r="438" spans="1:66" ht="14.25" customHeight="1">
       <c r="A438" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B438" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C438" s="9">
         <v>43894</v>
@@ -14249,10 +14229,10 @@
     </row>
     <row r="439" spans="1:66" ht="14.25" customHeight="1">
       <c r="A439" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B439" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C439" s="9">
         <v>43903</v>
@@ -14332,10 +14312,10 @@
     </row>
     <row r="440" spans="1:66" ht="14.25" customHeight="1">
       <c r="A440" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B440" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C440" s="9">
         <v>43908</v>
@@ -14415,10 +14395,10 @@
     </row>
     <row r="441" spans="1:66">
       <c r="A441" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B441" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C441" s="9">
         <v>43913</v>
@@ -14498,10 +14478,10 @@
     </row>
     <row r="442" spans="1:66">
       <c r="A442" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B442" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C442" s="9">
         <v>43920</v>
@@ -14581,10 +14561,10 @@
     </row>
     <row r="443" spans="1:66">
       <c r="A443" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B443" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C443" s="9">
         <v>43928</v>
@@ -14664,10 +14644,10 @@
     </row>
     <row r="444" spans="1:66">
       <c r="A444" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B444" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C444" s="9">
         <v>43938</v>
@@ -14747,10 +14727,10 @@
     </row>
     <row r="445" spans="1:66">
       <c r="A445" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C445" s="9">
         <v>43945</v>
@@ -14830,10 +14810,10 @@
     </row>
     <row r="446" spans="1:66">
       <c r="A446" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B446" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C446" s="9">
         <v>43865</v>
@@ -14913,10 +14893,10 @@
     </row>
     <row r="447" spans="1:66">
       <c r="A447" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B447" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C447" s="9">
         <v>43878</v>
@@ -14996,10 +14976,10 @@
     </row>
     <row r="448" spans="1:66">
       <c r="A448" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B448" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C448" s="9">
         <v>43886</v>
@@ -15079,10 +15059,10 @@
     </row>
     <row r="449" spans="1:66">
       <c r="A449" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B449" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C449" s="9">
         <v>43894</v>
@@ -15162,10 +15142,10 @@
     </row>
     <row r="450" spans="1:66">
       <c r="A450" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B450" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C450" s="9">
         <v>43903</v>
@@ -15245,10 +15225,10 @@
     </row>
     <row r="451" spans="1:66">
       <c r="A451" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B451" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C451" s="9">
         <v>43908</v>
@@ -15328,10 +15308,10 @@
     </row>
     <row r="452" spans="1:66">
       <c r="A452" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B452" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C452" s="9">
         <v>43913</v>
@@ -15411,10 +15391,10 @@
     </row>
     <row r="453" spans="1:66">
       <c r="A453" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B453" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C453" s="9">
         <v>43920</v>
@@ -15494,10 +15474,10 @@
     </row>
     <row r="454" spans="1:66">
       <c r="A454" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B454" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C454" s="9">
         <v>43928</v>
@@ -15577,10 +15557,10 @@
     </row>
     <row r="455" spans="1:66">
       <c r="A455" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B455" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C455" s="9">
         <v>43938</v>
@@ -15660,10 +15640,10 @@
     </row>
     <row r="456" spans="1:66">
       <c r="A456" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B456" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C456" s="9">
         <v>43945</v>
@@ -15743,10 +15723,10 @@
     </row>
     <row r="457" spans="1:66">
       <c r="A457" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B457" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C457" s="11">
         <v>43481</v>
@@ -15826,10 +15806,10 @@
     </row>
     <row r="458" spans="1:66">
       <c r="A458" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B458" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C458" s="11">
         <v>43488</v>
@@ -15909,10 +15889,10 @@
     </row>
     <row r="459" spans="1:66">
       <c r="A459" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B459" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C459" s="11">
         <v>43495</v>
@@ -15992,10 +15972,10 @@
     </row>
     <row r="460" spans="1:66">
       <c r="A460" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B460" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C460" s="11">
         <v>43501</v>
@@ -16075,10 +16055,10 @@
     </row>
     <row r="461" spans="1:66">
       <c r="A461" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B461" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C461" s="11">
         <v>43509</v>
@@ -16158,10 +16138,10 @@
     </row>
     <row r="462" spans="1:66">
       <c r="A462" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B462" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C462" s="11">
         <v>43516</v>
@@ -16241,10 +16221,10 @@
     </row>
     <row r="463" spans="1:66">
       <c r="A463" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B463" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C463" s="11">
         <v>43521</v>
@@ -16324,10 +16304,10 @@
     </row>
     <row r="464" spans="1:66">
       <c r="A464" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B464" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C464" s="11">
         <v>43525</v>
@@ -16407,10 +16387,10 @@
     </row>
     <row r="465" spans="1:66">
       <c r="A465" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B465" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C465" s="11">
         <v>43531</v>
@@ -16490,10 +16470,10 @@
     </row>
     <row r="466" spans="1:66">
       <c r="A466" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B466" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C466" s="11">
         <v>43537</v>
@@ -16573,10 +16553,10 @@
     </row>
     <row r="467" spans="1:66">
       <c r="A467" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B467" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C467" s="11">
         <v>43544</v>
@@ -16656,10 +16636,10 @@
     </row>
     <row r="468" spans="1:66">
       <c r="A468" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B468" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C468" s="11">
         <v>43552</v>
@@ -16739,10 +16719,10 @@
     </row>
     <row r="469" spans="1:66">
       <c r="A469" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B469" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C469" s="11">
         <v>43558</v>
@@ -16822,10 +16802,10 @@
     </row>
     <row r="470" spans="1:66">
       <c r="A470" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B470" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C470" s="11">
         <v>43565</v>
@@ -16905,10 +16885,10 @@
     </row>
     <row r="471" spans="1:66">
       <c r="A471" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B471" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C471" s="11">
         <v>43481</v>
@@ -16988,10 +16968,10 @@
     </row>
     <row r="472" spans="1:66">
       <c r="A472" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B472" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C472" s="11">
         <v>43488</v>
@@ -17071,10 +17051,10 @@
     </row>
     <row r="473" spans="1:66">
       <c r="A473" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B473" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C473" s="11">
         <v>43495</v>
@@ -17154,10 +17134,10 @@
     </row>
     <row r="474" spans="1:66">
       <c r="A474" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B474" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C474" s="11">
         <v>43501</v>
@@ -17237,10 +17217,10 @@
     </row>
     <row r="475" spans="1:66">
       <c r="A475" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B475" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C475" s="11">
         <v>43509</v>
@@ -17320,10 +17300,10 @@
     </row>
     <row r="476" spans="1:66">
       <c r="A476" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B476" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C476" s="11">
         <v>43516</v>
@@ -17403,10 +17383,10 @@
     </row>
     <row r="477" spans="1:66">
       <c r="A477" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B477" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C477" s="11">
         <v>43521</v>
@@ -17486,10 +17466,10 @@
     </row>
     <row r="478" spans="1:66">
       <c r="A478" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B478" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C478" s="11">
         <v>43525</v>
@@ -17569,10 +17549,10 @@
     </row>
     <row r="479" spans="1:66">
       <c r="A479" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B479" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C479" s="11">
         <v>43531</v>
@@ -17652,10 +17632,10 @@
     </row>
     <row r="480" spans="1:66">
       <c r="A480" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B480" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C480" s="11">
         <v>43537</v>
@@ -17735,10 +17715,10 @@
     </row>
     <row r="481" spans="1:66">
       <c r="A481" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B481" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C481" s="11">
         <v>43544</v>
@@ -17818,10 +17798,10 @@
     </row>
     <row r="482" spans="1:66">
       <c r="A482" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B482" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C482" s="11">
         <v>43552</v>
@@ -17901,10 +17881,10 @@
     </row>
     <row r="483" spans="1:66">
       <c r="A483" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B483" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C483" s="11">
         <v>43558</v>
@@ -17984,10 +17964,10 @@
     </row>
     <row r="484" spans="1:66">
       <c r="A484" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B484" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C484" s="11">
         <v>43565</v>
@@ -18067,10 +18047,10 @@
     </row>
     <row r="485" spans="1:66">
       <c r="A485" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B485" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C485" s="11">
         <v>43481</v>
@@ -18150,10 +18130,10 @@
     </row>
     <row r="486" spans="1:66">
       <c r="A486" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B486" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C486" s="11">
         <v>43488</v>
@@ -18233,10 +18213,10 @@
     </row>
     <row r="487" spans="1:66">
       <c r="A487" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B487" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C487" s="11">
         <v>43495</v>
@@ -18316,10 +18296,10 @@
     </row>
     <row r="488" spans="1:66">
       <c r="A488" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B488" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C488" s="11">
         <v>43501</v>
@@ -18399,10 +18379,10 @@
     </row>
     <row r="489" spans="1:66">
       <c r="A489" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B489" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C489" s="11">
         <v>43509</v>
@@ -18482,10 +18462,10 @@
     </row>
     <row r="490" spans="1:66">
       <c r="A490" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B490" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C490" s="11">
         <v>43516</v>
@@ -18565,10 +18545,10 @@
     </row>
     <row r="491" spans="1:66">
       <c r="A491" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B491" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C491" s="11">
         <v>43521</v>
@@ -18648,10 +18628,10 @@
     </row>
     <row r="492" spans="1:66">
       <c r="A492" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B492" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C492" s="11">
         <v>43525</v>
@@ -18731,10 +18711,10 @@
     </row>
     <row r="493" spans="1:66">
       <c r="A493" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B493" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C493" s="11">
         <v>43531</v>
@@ -18814,10 +18794,10 @@
     </row>
     <row r="494" spans="1:66">
       <c r="A494" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B494" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C494" s="11">
         <v>43537</v>
@@ -18897,10 +18877,10 @@
     </row>
     <row r="495" spans="1:66">
       <c r="A495" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B495" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C495" s="11">
         <v>43544</v>
@@ -18980,10 +18960,10 @@
     </row>
     <row r="496" spans="1:66">
       <c r="A496" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B496" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C496" s="11">
         <v>43552</v>
@@ -19063,10 +19043,10 @@
     </row>
     <row r="497" spans="1:66">
       <c r="A497" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B497" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C497" s="11">
         <v>43558</v>
@@ -19146,10 +19126,10 @@
     </row>
     <row r="498" spans="1:66">
       <c r="A498" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B498" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C498" s="11">
         <v>43565</v>
@@ -19229,10 +19209,10 @@
     </row>
     <row r="499" spans="1:66">
       <c r="A499" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B499" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C499" s="11">
         <v>43481</v>
@@ -19312,10 +19292,10 @@
     </row>
     <row r="500" spans="1:66">
       <c r="A500" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B500" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C500" s="11">
         <v>43488</v>
@@ -19395,10 +19375,10 @@
     </row>
     <row r="501" spans="1:66">
       <c r="A501" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B501" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C501" s="11">
         <v>43495</v>
@@ -19478,10 +19458,10 @@
     </row>
     <row r="502" spans="1:66">
       <c r="A502" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B502" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C502" s="11">
         <v>43501</v>
@@ -19561,10 +19541,10 @@
     </row>
     <row r="503" spans="1:66">
       <c r="A503" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B503" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C503" s="11">
         <v>43509</v>
@@ -19644,10 +19624,10 @@
     </row>
     <row r="504" spans="1:66">
       <c r="A504" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B504" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C504" s="11">
         <v>43516</v>
@@ -19727,10 +19707,10 @@
     </row>
     <row r="505" spans="1:66">
       <c r="A505" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B505" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C505" s="11">
         <v>43521</v>
@@ -19810,10 +19790,10 @@
     </row>
     <row r="506" spans="1:66">
       <c r="A506" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B506" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C506" s="11">
         <v>43525</v>
@@ -19893,10 +19873,10 @@
     </row>
     <row r="507" spans="1:66">
       <c r="A507" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B507" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C507" s="11">
         <v>43531</v>
@@ -19976,10 +19956,10 @@
     </row>
     <row r="508" spans="1:66">
       <c r="A508" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B508" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C508" s="11">
         <v>43537</v>
@@ -20059,10 +20039,10 @@
     </row>
     <row r="509" spans="1:66">
       <c r="A509" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B509" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C509" s="11">
         <v>43544</v>
@@ -20142,10 +20122,10 @@
     </row>
     <row r="510" spans="1:66">
       <c r="A510" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B510" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C510" s="11">
         <v>43552</v>
@@ -20225,10 +20205,10 @@
     </row>
     <row r="511" spans="1:66">
       <c r="A511" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B511" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C511" s="11">
         <v>43558</v>
@@ -20308,10 +20288,10 @@
     </row>
     <row r="512" spans="1:66">
       <c r="A512" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B512" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C512" s="11">
         <v>43565</v>
